--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.525086333333334</v>
+        <v>3.693906</v>
       </c>
       <c r="N2">
-        <v>7.575259000000001</v>
+        <v>11.081718</v>
       </c>
       <c r="O2">
-        <v>0.3217718603796592</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="P2">
-        <v>0.3217718603796591</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="Q2">
-        <v>0.09177173769866667</v>
+        <v>0.134251319664</v>
       </c>
       <c r="R2">
-        <v>0.825945639288</v>
+        <v>1.208261876976</v>
       </c>
       <c r="S2">
-        <v>0.002618944440203839</v>
+        <v>0.004526805968217295</v>
       </c>
       <c r="T2">
-        <v>0.002618944440203839</v>
+        <v>0.004526805968217297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.027466</v>
       </c>
       <c r="O3">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="P3">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="Q3">
-        <v>0.03667674143466666</v>
+        <v>0.03667674143466667</v>
       </c>
       <c r="R3">
         <v>0.330090672912</v>
       </c>
       <c r="S3">
-        <v>0.001046665895991959</v>
+        <v>0.001236699143343563</v>
       </c>
       <c r="T3">
-        <v>0.001046665895991959</v>
+        <v>0.001236699143343563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.433365333333333</v>
+        <v>1.891064</v>
       </c>
       <c r="N4">
-        <v>7.300096</v>
+        <v>5.673192</v>
       </c>
       <c r="O4">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="P4">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="Q4">
-        <v>0.08843822967466665</v>
+        <v>0.06872883001600001</v>
       </c>
       <c r="R4">
-        <v>0.7959440670719999</v>
+        <v>0.618559470144</v>
       </c>
       <c r="S4">
-        <v>0.002523814147101014</v>
+        <v>0.002317460109023042</v>
       </c>
       <c r="T4">
-        <v>0.002523814147101014</v>
+        <v>0.002317460109023043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2628183333333334</v>
+        <v>0.140283</v>
       </c>
       <c r="N5">
-        <v>0.7884550000000001</v>
+        <v>0.420849</v>
       </c>
       <c r="O5">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="P5">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="Q5">
-        <v>0.009551869506666666</v>
+        <v>0.005098445352000001</v>
       </c>
       <c r="R5">
-        <v>0.08596682556</v>
+        <v>0.045886008168</v>
       </c>
       <c r="S5">
-        <v>0.00027258735821454</v>
+        <v>0.0001719139365320685</v>
       </c>
       <c r="T5">
-        <v>0.00027258735821454</v>
+        <v>0.0001719139365320685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.617017666666667</v>
+        <v>1.191533333333333</v>
       </c>
       <c r="N6">
-        <v>4.851053</v>
+        <v>3.5746</v>
       </c>
       <c r="O6">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="P6">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="Q6">
-        <v>0.05876889007733332</v>
+        <v>0.04330508746666667</v>
       </c>
       <c r="R6">
-        <v>0.528920010696</v>
+        <v>0.3897457872</v>
       </c>
       <c r="S6">
-        <v>0.001677122628214316</v>
+        <v>0.001460199638177902</v>
       </c>
       <c r="T6">
-        <v>0.001677122628214316</v>
+        <v>0.001460199638177902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.525086333333334</v>
+        <v>3.693906</v>
       </c>
       <c r="N7">
-        <v>7.575259000000001</v>
+        <v>11.081718</v>
       </c>
       <c r="O7">
-        <v>0.3217718603796592</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="P7">
-        <v>0.3217718603796591</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="Q7">
-        <v>8.159282009559446</v>
+        <v>11.93607536223</v>
       </c>
       <c r="R7">
-        <v>73.433538086035</v>
+        <v>107.42467826007</v>
       </c>
       <c r="S7">
-        <v>0.2328462639026762</v>
+        <v>0.4024712555680236</v>
       </c>
       <c r="T7">
-        <v>0.2328462639026762</v>
+        <v>0.4024712555680237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.027466</v>
       </c>
       <c r="O8">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="P8">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="Q8">
         <v>3.260871855121111</v>
@@ -948,10 +948,10 @@
         <v>29.34784669609</v>
       </c>
       <c r="S8">
-        <v>0.09305743172509076</v>
+        <v>0.1099529912428292</v>
       </c>
       <c r="T8">
-        <v>0.09305743172509078</v>
+        <v>0.1099529912428292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.433365333333333</v>
+        <v>1.891064</v>
       </c>
       <c r="N9">
-        <v>7.300096</v>
+        <v>5.673192</v>
       </c>
       <c r="O9">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="P9">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="Q9">
-        <v>7.862905012337777</v>
+        <v>6.110573040786666</v>
       </c>
       <c r="R9">
-        <v>70.76614511103999</v>
+        <v>54.99515736708</v>
       </c>
       <c r="S9">
-        <v>0.224388377972406</v>
+        <v>0.2060417624161224</v>
       </c>
       <c r="T9">
-        <v>0.224388377972406</v>
+        <v>0.2060417624161224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2628183333333334</v>
+        <v>0.140283</v>
       </c>
       <c r="N10">
-        <v>0.7884550000000001</v>
+        <v>0.420849</v>
       </c>
       <c r="O10">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="P10">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="Q10">
-        <v>0.8492418142861112</v>
+        <v>0.453294821265</v>
       </c>
       <c r="R10">
-        <v>7.643176328575001</v>
+        <v>4.079653391384999</v>
       </c>
       <c r="S10">
-        <v>0.0242353167073739</v>
+        <v>0.0152845998638972</v>
       </c>
       <c r="T10">
-        <v>0.02423531670737391</v>
+        <v>0.0152845998638972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.617017666666667</v>
+        <v>1.191533333333333</v>
       </c>
       <c r="N11">
-        <v>4.851053</v>
+        <v>3.5746</v>
       </c>
       <c r="O11">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="P11">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="Q11">
-        <v>5.225050321093889</v>
+        <v>3.850187758777778</v>
       </c>
       <c r="R11">
-        <v>47.025452889845</v>
+        <v>34.65168982899999</v>
       </c>
       <c r="S11">
-        <v>0.1491103561005463</v>
+        <v>0.1298240715161184</v>
       </c>
       <c r="T11">
-        <v>0.1491103561005464</v>
+        <v>0.1298240715161185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.525086333333334</v>
+        <v>3.693906</v>
       </c>
       <c r="N12">
-        <v>7.575259000000001</v>
+        <v>11.081718</v>
       </c>
       <c r="O12">
-        <v>0.3217718603796592</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="P12">
-        <v>0.3217718603796591</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="Q12">
-        <v>1.358347467239667</v>
+        <v>0.75384617997</v>
       </c>
       <c r="R12">
-        <v>12.225127205157</v>
+        <v>6.78461561973</v>
       </c>
       <c r="S12">
-        <v>0.03876396629726209</v>
+        <v>0.02541885916016872</v>
       </c>
       <c r="T12">
-        <v>0.03876396629726209</v>
+        <v>0.02541885916016872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.027466</v>
       </c>
       <c r="O13">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="P13">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="Q13">
-        <v>0.5428660291686667</v>
+        <v>0.2059467385011111</v>
       </c>
       <c r="R13">
-        <v>4.885794262518001</v>
+        <v>1.85352064651</v>
       </c>
       <c r="S13">
-        <v>0.0154920894440846</v>
+        <v>0.006944296170160562</v>
       </c>
       <c r="T13">
-        <v>0.0154920894440846</v>
+        <v>0.006944296170160562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.433365333333333</v>
+        <v>1.891064</v>
       </c>
       <c r="N14">
-        <v>7.300096</v>
+        <v>5.673192</v>
       </c>
       <c r="O14">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="P14">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="Q14">
-        <v>1.309006980778667</v>
+        <v>0.3859251893466667</v>
       </c>
       <c r="R14">
-        <v>11.781062827008</v>
+        <v>3.47332670412</v>
       </c>
       <c r="S14">
-        <v>0.03735590760801416</v>
+        <v>0.01301297041095937</v>
       </c>
       <c r="T14">
-        <v>0.03735590760801417</v>
+        <v>0.01301297041095938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2628183333333334</v>
+        <v>0.140283</v>
       </c>
       <c r="N15">
-        <v>0.7884550000000001</v>
+        <v>0.420849</v>
       </c>
       <c r="O15">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="P15">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="Q15">
-        <v>0.1413807570516667</v>
+        <v>0.028628720835</v>
       </c>
       <c r="R15">
-        <v>1.272426813465</v>
+        <v>0.257658487515</v>
       </c>
       <c r="S15">
-        <v>0.004034666411657711</v>
+        <v>0.0009653287927646097</v>
       </c>
       <c r="T15">
-        <v>0.004034666411657712</v>
+        <v>0.00096532879276461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.617017666666667</v>
+        <v>1.191533333333333</v>
       </c>
       <c r="N16">
-        <v>4.851053</v>
+        <v>3.5746</v>
       </c>
       <c r="O16">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="P16">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="Q16">
-        <v>0.8698601006243334</v>
+        <v>0.2431661367777778</v>
       </c>
       <c r="R16">
-        <v>7.828740905619001</v>
+        <v>2.188495231</v>
       </c>
       <c r="S16">
-        <v>0.02482371295796383</v>
+        <v>0.008199293101840265</v>
       </c>
       <c r="T16">
-        <v>0.02482371295796384</v>
+        <v>0.008199293101840267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.525086333333334</v>
+        <v>3.693906</v>
       </c>
       <c r="N17">
-        <v>7.575259000000001</v>
+        <v>11.081718</v>
       </c>
       <c r="O17">
-        <v>0.3217718603796592</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="P17">
-        <v>0.3217718603796591</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="Q17">
-        <v>0.3973888284901112</v>
+        <v>0.54057236055</v>
       </c>
       <c r="R17">
-        <v>3.576499456411001</v>
+        <v>4.86515124495</v>
       </c>
       <c r="S17">
-        <v>0.0113405203940953</v>
+        <v>0.01822750192784319</v>
       </c>
       <c r="T17">
-        <v>0.0113405203940953</v>
+        <v>0.01822750192784319</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.027466</v>
       </c>
       <c r="O18">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="P18">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="Q18">
-        <v>0.1588171661237778</v>
+        <v>0.1476814734055556</v>
       </c>
       <c r="R18">
-        <v>1.429354495114</v>
+        <v>1.32913326065</v>
       </c>
       <c r="S18">
-        <v>0.00453225954590201</v>
+        <v>0.004979655893741359</v>
       </c>
       <c r="T18">
-        <v>0.004532259545902011</v>
+        <v>0.004979655893741359</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.433365333333333</v>
+        <v>1.891064</v>
       </c>
       <c r="N19">
-        <v>7.300096</v>
+        <v>5.673192</v>
       </c>
       <c r="O19">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="P19">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="Q19">
-        <v>0.3829541138204444</v>
+        <v>0.2767414575333333</v>
       </c>
       <c r="R19">
-        <v>3.446587024384</v>
+        <v>2.4906731178</v>
       </c>
       <c r="S19">
-        <v>0.01092858839108385</v>
+        <v>0.009331415771184987</v>
       </c>
       <c r="T19">
-        <v>0.01092858839108386</v>
+        <v>0.009331415771184988</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2628183333333334</v>
+        <v>0.140283</v>
       </c>
       <c r="N20">
-        <v>0.7884550000000001</v>
+        <v>0.420849</v>
       </c>
       <c r="O20">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="P20">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="Q20">
-        <v>0.04136138563277779</v>
+        <v>0.02052924802500001</v>
       </c>
       <c r="R20">
-        <v>0.3722524706950001</v>
+        <v>0.184763232225</v>
       </c>
       <c r="S20">
-        <v>0.001180354362448387</v>
+        <v>0.0006922235305780997</v>
       </c>
       <c r="T20">
-        <v>0.001180354362448387</v>
+        <v>0.0006922235305780999</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H21">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I21">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J21">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.617017666666667</v>
+        <v>1.191533333333333</v>
       </c>
       <c r="N21">
-        <v>4.851053</v>
+        <v>3.5746</v>
       </c>
       <c r="O21">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="P21">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="Q21">
-        <v>0.2544803113152223</v>
+        <v>0.1743709738888889</v>
       </c>
       <c r="R21">
-        <v>2.290322801837</v>
+        <v>1.569338765</v>
       </c>
       <c r="S21">
-        <v>0.007262255386824024</v>
+        <v>0.005879596321731725</v>
       </c>
       <c r="T21">
-        <v>0.007262255386824026</v>
+        <v>0.005879596321731726</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.525086333333334</v>
+        <v>3.693906</v>
       </c>
       <c r="N22">
-        <v>7.575259000000001</v>
+        <v>11.081718</v>
       </c>
       <c r="O22">
-        <v>0.3217718603796592</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="P22">
-        <v>0.3217718603796591</v>
+        <v>0.4660526351758414</v>
       </c>
       <c r="Q22">
-        <v>1.268578123003334</v>
+        <v>0.45696079824</v>
       </c>
       <c r="R22">
-        <v>11.41720310703</v>
+        <v>4.11264718416</v>
       </c>
       <c r="S22">
-        <v>0.03620216534542171</v>
+        <v>0.01540821255158855</v>
       </c>
       <c r="T22">
-        <v>0.03620216534542171</v>
+        <v>0.01540821255158856</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.027466</v>
       </c>
       <c r="O23">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="P23">
-        <v>0.1285967076579382</v>
+        <v>0.127323083587334</v>
       </c>
       <c r="Q23">
-        <v>0.5069895479133334</v>
+        <v>0.1248392424355556</v>
       </c>
       <c r="R23">
-        <v>4.56290593122</v>
+        <v>1.12355318192</v>
       </c>
       <c r="S23">
-        <v>0.01446826104686882</v>
+        <v>0.004209441137259366</v>
       </c>
       <c r="T23">
-        <v>0.01446826104686883</v>
+        <v>0.004209441137259367</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.433365333333333</v>
+        <v>1.891064</v>
       </c>
       <c r="N24">
-        <v>7.300096</v>
+        <v>5.673192</v>
       </c>
       <c r="O24">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="P24">
-        <v>0.3100838493931505</v>
+        <v>0.2385917130772053</v>
       </c>
       <c r="Q24">
-        <v>1.222498409813333</v>
+        <v>0.2339372238933334</v>
       </c>
       <c r="R24">
-        <v>11.00248568832</v>
+        <v>2.10543501504</v>
       </c>
       <c r="S24">
-        <v>0.03488716127454541</v>
+        <v>0.007888104369915544</v>
       </c>
       <c r="T24">
-        <v>0.03488716127454541</v>
+        <v>0.007888104369915546</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2628183333333334</v>
+        <v>0.140283</v>
       </c>
       <c r="N25">
-        <v>0.7884550000000001</v>
+        <v>0.420849</v>
       </c>
       <c r="O25">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="P25">
-        <v>0.03349095155368868</v>
+        <v>0.01769922185902201</v>
       </c>
       <c r="Q25">
-        <v>0.1320373024833334</v>
+        <v>0.01735394232</v>
       </c>
       <c r="R25">
-        <v>1.18833572235</v>
+        <v>0.15618548088</v>
       </c>
       <c r="S25">
-        <v>0.003768026713994132</v>
+        <v>0.0005851557352500298</v>
       </c>
       <c r="T25">
-        <v>0.003768026713994132</v>
+        <v>0.00058515573525003</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.617017666666667</v>
+        <v>1.191533333333333</v>
       </c>
       <c r="N26">
-        <v>4.851053</v>
+        <v>3.5746</v>
       </c>
       <c r="O26">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="P26">
-        <v>0.2060566310155635</v>
+        <v>0.1503333463005973</v>
       </c>
       <c r="Q26">
-        <v>0.8123735055566667</v>
+        <v>0.1474006168888889</v>
       </c>
       <c r="R26">
-        <v>7.31136155001</v>
+        <v>1.326605552</v>
       </c>
       <c r="S26">
-        <v>0.02318318394201492</v>
+        <v>0.004970185722728951</v>
       </c>
       <c r="T26">
-        <v>0.02318318394201492</v>
+        <v>0.004970185722728953</v>
       </c>
     </row>
   </sheetData>
